--- a/lib/template.xlsx
+++ b/lib/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\flutter\p_automation\lib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\flutter\flutter_automation\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715CB258-C7B3-4B42-AB6C-E9BDCBCEDC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A5E5E4-64AE-44F0-9C30-555D987A036E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21360" yWindow="2250" windowWidth="14360" windowHeight="7850" xr2:uid="{C97B5454-A13E-4BBE-886D-BB28A2E970BE}"/>
+    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{C97B5454-A13E-4BBE-886D-BB28A2E970BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>출처</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,11 +91,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>어휘10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>안얼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정답</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별표3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뜻1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뜻2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뜻3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뜻4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뜻5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뜻6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뜻7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뜻8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뜻9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit 20 No. 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Leo Lionni, an internationally known designer, illustrator, and graphic artist, was born in Holland and lived in Italy until he came to the United States in 1939. As a little boy, he would go into the museums in Amsterdam, and that’s how he taught himself how to draw. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동화 작가이자 삽화가인 Leo Lionni</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">국제적으로 알려진 디자이너이자 삽화가이자 그래픽 아티스트였던 Leo Lionni는 네덜란드에서 태어나 1939년 미국에 올 때까지 이탈리아에서 살았다. 어린 소년이었을 때 그는 암스테르담의 박물관에 들어가곤 했는데, 그것이 그가 그림 그리는 법을 독학한 방법이다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1982년, Lionni는 파킨슨병을 진단받았지만, 그는 그리기, 삽화 그리기, 그리고 가르치는 일을 계속했다(In 1982, Lionni was diagnosed with Parkinson’s disease, but he kept working in drawing, illustrating and teaching.)고 했으므로 글의 내용과 일치하지 않는 것은 ⑤이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>illustrator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삽화가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,15 +540,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66153057-1D6F-4CCF-A61E-C1990A895B7C}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -482,96 +562,156 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="U1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="W1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Y1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
-        <v>16</v>
+      <c r="AA1" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q2" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W2" t="s">
+        <v>16</v>
+      </c>
+      <c r="X2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
